--- a/biology/Zoologie/Fauvette_du_désert/Fauvette_du_désert.xlsx
+++ b/biology/Zoologie/Fauvette_du_désert/Fauvette_du_désert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fauvette_du_d%C3%A9sert</t>
+          <t>Fauvette_du_désert</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Curruca deserti
 La Fauvette du désert  (Curruca deserti) est une espèce d’oiseaux de la famille des Sylviidae. Jusqu'à une date récente, elle était considérée comme conspécifique à la fauvette naine, espèce migratrice qui vit en Asie centrale et migre jusqu'au Golfe Persique et à la péninsule Arabique.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fauvette_du_d%C3%A9sert</t>
+          <t>Fauvette_du_désert</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette fauvette vit dans les déserts de l'ouest de l'Afrique du Nord au sud de l'Atlas, du sud-est du Maroc à la Libye occidentale et au Mali et au Niger. Elle passe l'hiver dans cette zone et ne migre que sur de courtes distances.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fauvette_du_d%C3%A9sert</t>
+          <t>Fauvette_du_désert</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un petit oiseau, d'environ 11-12 cm de long et pesant de 7 à 10 grammes[réf. nécessaire]. Le mâle et la femelle sont presque de couleurs identiques, jaune sable clair-marron au-dessus et blanchâtre en dessous ; le bec et les pattes sont jaunâtres et l'œil possède un iris jaune.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fauvette_du_d%C3%A9sert</t>
+          <t>Fauvette_du_désert</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est insectivore mais peut aussi manger de petites baies. Contrairement à la plupart des fauvettes, il se nourrit sur le sol. Son chant est un son distinctif aux notes claires, poussé souvent lors d'un vol d'avertissement.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fauvette_du_d%C3%A9sert</t>
+          <t>Fauvette_du_désert</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Nidification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il niche dans des environnements désertiques ou semi-désertiques où l'on trouve des buissons isolés pour la nidification. Le nid est construit dans de petits arbustes, et il y pond de 2 à 5 œufs[réf. nécessaire].
 </t>
@@ -618,7 +638,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Fauvette_du_d%C3%A9sert</t>
+          <t>Fauvette_du_désert</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -636,9 +656,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La fauvette du désert faisait anciennement partie du genre Sylvia, mais a depuis été reclassée dans le genre Curruca après que celui-ci a été séparé de Sylvia[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La fauvette du désert faisait anciennement partie du genre Sylvia, mais a depuis été reclassée dans le genre Curruca après que celui-ci a été séparé de Sylvia.
 </t>
         </is>
       </c>
